--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/StimuliNegative_5.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/StimuliNegative_5.xlsx
@@ -45,61 +45,61 @@
     <t>Stimuli/223.jpg</t>
   </si>
   <si>
-    <t>Stimuli/227.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/326.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/1111.jpg</t>
-  </si>
-  <si>
     <t>Stimuli/3016.jpg</t>
   </si>
   <si>
-    <t>Stimuli/3017.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/3022.jpg</t>
-  </si>
-  <si>
     <t>Stimuli/3101.jpg</t>
   </si>
   <si>
-    <t>Stimuli/3350.jpg</t>
-  </si>
-  <si>
     <t>Stimuli/6571.jpg</t>
   </si>
   <si>
-    <t>Stimuli/9180.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9295.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9332.jpg</t>
-  </si>
-  <si>
     <t>Stimuli/9402.jpg</t>
   </si>
   <si>
-    <t>Stimuli/9409.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9411.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9421.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9425.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9570.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9904.jpg</t>
+    <t>Stimuli/238.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/245.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/2981.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3181.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3215.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3220.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3225.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6020.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6831.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/8231.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9373.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9400.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9403.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9405.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9423.jpg</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,82 +442,82 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
